--- a/cypress/downloads/export.xlsx
+++ b/cypress/downloads/export.xlsx
@@ -375,348 +375,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Item #</v>
+        <v>Active</v>
       </c>
       <c r="B1" t="str">
-        <v>Recovery Date</v>
+        <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>Disposition Status</v>
+        <v>Size</v>
       </c>
       <c r="D1" t="str">
-        <v>Hold Until Date</v>
+        <v>Hash</v>
       </c>
       <c r="E1" t="str">
-        <v>Storage Location</v>
+        <v>Primary Case</v>
       </c>
       <c r="F1" t="str">
-        <v>Primary Case #</v>
+        <v>Uploaded By</v>
       </c>
       <c r="G1" t="str">
-        <v>Office</v>
+        <v>Uploaded Date</v>
       </c>
       <c r="H1" t="str">
-        <v>Case Officer(s)</v>
+        <v>Category</v>
       </c>
       <c r="I1" t="str">
         <v>Description</v>
       </c>
       <c r="J1" t="str">
-        <v>Status</v>
+        <v>Type</v>
       </c>
       <c r="K1" t="str">
-        <v>Disposition Authorization Action</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Org #</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Barcode</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Claimant</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Case Offense Type</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Item Cases</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Disposition Rejection Note</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Drug Form (Sys Template)-Packaging Type</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Created By</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Examinations Requested for KSP26 Form-Forward for additional analysis (specify)</v>
-      </c>
-      <c r="V1" t="str">
-        <v xml:space="preserve">Created Date </v>
-      </c>
-      <c r="W1" t="str">
-        <v>Checkout Reason</v>
-      </c>
-      <c r="X1" t="str">
-        <v>Check Out Date</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>Checked Out To</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>Checked Out Notes</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>Disposal Method</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>Dispose Date</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>Expected Return Date</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>Disposed By</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>Disposal Notes</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>Custodian</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>Media Count</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>Actual Disposed Date</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>Form Data</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>Additional Barcodes</v>
-      </c>
-      <c r="AK1" t="str">
-        <v>Tags</v>
-      </c>
-      <c r="AL1" t="str">
-        <v>Recovered At</v>
-      </c>
-      <c r="AM1" t="str">
-        <v>Recovered By</v>
-      </c>
-      <c r="AN1" t="str">
-        <v>Custody Reason</v>
-      </c>
-      <c r="AO1" t="str">
-        <v>Make</v>
-      </c>
-      <c r="AP1" t="str">
-        <v>Model</v>
-      </c>
-      <c r="AQ1" t="str">
-        <v>Serial Number</v>
-      </c>
-      <c r="AR1" t="str">
-        <v>Item Belongs to</v>
-      </c>
-      <c r="AS1" t="str">
-        <v>Source Organization</v>
-      </c>
-      <c r="AT1" t="str">
-        <v>Organization</v>
-      </c>
-      <c r="AU1" t="str">
-        <v>Public Facing Description</v>
-      </c>
-      <c r="AV1" t="str">
-        <v>Checked In Notes</v>
-      </c>
-      <c r="AW1" t="str">
-        <v>Check In Date</v>
-      </c>
-      <c r="AX1" t="str">
-        <v>Returned By</v>
-      </c>
-      <c r="AY1" t="str">
-        <v>Checked In By</v>
-      </c>
-      <c r="AZ1" t="str">
-        <v>Transfer Date</v>
-      </c>
-      <c r="BA1" t="str">
-        <v>Transfer Notes</v>
-      </c>
-      <c r="BB1" t="str">
-        <v>Transfer From</v>
-      </c>
-      <c r="BC1" t="str">
-        <v>Transfer To</v>
-      </c>
-      <c r="BD1" t="str">
-        <v>Latest Transaction Notes</v>
-      </c>
-      <c r="BE1" t="str">
-        <v>Released To</v>
-      </c>
-      <c r="BF1" t="str">
-        <v>Release After Date</v>
-      </c>
-      <c r="BG1" t="str">
-        <v>Disposition Authorized Date</v>
-      </c>
-      <c r="BH1" t="str">
-        <v>Disposition Initiator</v>
-      </c>
-      <c r="BI1" t="str">
-        <v>Disposition Reviewer (2rd tier)</v>
-      </c>
-      <c r="BJ1" t="str">
-        <v>Disposition Reviewer (3rd tier)</v>
-      </c>
-      <c r="BK1" t="str">
-        <v>Disposition Secondary Action</v>
-      </c>
-      <c r="BL1" t="str">
-        <v>Dispose After Date</v>
-      </c>
-      <c r="BM1" t="str">
-        <v>Hold Reason</v>
-      </c>
-      <c r="BN1" t="str">
-        <v>Owner</v>
-      </c>
-      <c r="BO1" t="str">
-        <v>Date of Last Letter Sent</v>
+        <v>Location</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>03/05/24 05:27 PM</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Unreviewed</v>
+        <v>image.png</v>
+      </c>
+      <c r="C2">
+        <v>8336</v>
+      </c>
+      <c r="D2" t="str">
+        <v>5C2799FA7C15165F4DAE51DEE6D4D1BC</v>
       </c>
       <c r="E2" t="str">
-        <v>CypressLocation1</v>
+        <v>93025660796</v>
       </c>
       <c r="F2" t="str">
-        <v>93025240613</v>
+        <v>Cypress Org2Admin</v>
       </c>
       <c r="G2" t="str">
-        <v>Cypress Office 1</v>
+        <v>09/30/25 11:42 AM</v>
       </c>
       <c r="H2" t="str">
-        <v>Cypress Org2Admin</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>description_93025368452</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>Checked In</v>
-      </c>
-      <c r="L2">
-        <v>457650</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Alcohol</v>
-      </c>
-      <c r="N2" t="str">
-        <v>566fd973-2317-48d6-8845-a6fd375651c5</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Burglary</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="str">
-        <v/>
-      </c>
-      <c r="S2" t="str">
-        <v/>
-      </c>
-      <c r="T2" t="str">
-        <v>Cypress Org2Admin</v>
-      </c>
-      <c r="U2" t="str">
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <v>09/30/25 07:06 AM</v>
-      </c>
-      <c r="Z2" t="str">
-        <v/>
-      </c>
-      <c r="AE2" t="str">
-        <v/>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="str">
-        <v>93025120065</v>
-      </c>
-      <c r="AK2" t="str">
-        <v>sensitive information</v>
-      </c>
-      <c r="AL2" t="str">
-        <v>Chicago, IL, USA</v>
-      </c>
-      <c r="AM2" t="str">
-        <v>Cypress Person_1</v>
-      </c>
-      <c r="AN2" t="str">
-        <v>Asset</v>
-      </c>
-      <c r="AO2" t="str">
-        <v>make_93025368452</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>model_93025368452</v>
-      </c>
-      <c r="AQ2" t="str">
-        <v>serialNo_93025368452</v>
-      </c>
-      <c r="AR2" t="str">
-        <v>Cypress Person_1,</v>
-      </c>
-      <c r="AS2" t="str">
-        <v>Web Test Automtion #2</v>
-      </c>
-      <c r="AT2" t="str">
-        <v>03/05/24 05:27 PM</v>
-      </c>
-      <c r="AU2" t="str">
-        <v>description_93025368452</v>
-      </c>
-      <c r="AV2" t="str">
-        <v>Item entered into system.</v>
-      </c>
-      <c r="AW2" t="str">
-        <v>09/30/25 07:06 AM</v>
-      </c>
-      <c r="AY2" t="str">
-        <v>Cypress Org2Admin</v>
-      </c>
-      <c r="BA2" t="str">
-        <v/>
-      </c>
-      <c r="BD2" t="str">
-        <v>Item entered into system.</v>
-      </c>
-      <c r="BH2" t="str">
-        <v/>
-      </c>
-      <c r="BI2" t="str">
-        <v/>
-      </c>
-      <c r="BJ2" t="str">
-        <v/>
+        <v>Case</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Safe Cloud</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BO2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>